--- a/artfynd/Gålgoberget artfynd.xlsx
+++ b/artfynd/Gålgoberget artfynd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY52"/>
+  <dimension ref="A1:AY54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -991,10 +991,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>56823789</v>
+        <v>56823794</v>
       </c>
       <c r="B5" t="n">
-        <v>91263</v>
+        <v>80083</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1002,21 +1002,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5432</v>
+        <v>6458</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>679591</v>
+        <v>679446</v>
       </c>
       <c r="R5" t="n">
-        <v>7118037</v>
+        <v>7117957</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1080,7 +1080,7 @@
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>torrgran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>
@@ -1098,7 +1098,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>56823794</v>
+        <v>56823765</v>
       </c>
       <c r="B6" t="n">
         <v>80083</v>
@@ -1133,10 +1133,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>679446</v>
+        <v>680386</v>
       </c>
       <c r="R6" t="n">
-        <v>7117957</v>
+        <v>7117699</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1205,10 +1205,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>56823765</v>
+        <v>56823789</v>
       </c>
       <c r="B7" t="n">
-        <v>80083</v>
+        <v>91263</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1216,21 +1216,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6458</v>
+        <v>5432</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1240,10 +1240,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>680386</v>
+        <v>679591</v>
       </c>
       <c r="R7" t="n">
-        <v>7117699</v>
+        <v>7118037</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1294,7 +1294,7 @@
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>torrgran</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
@@ -1419,10 +1419,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>56823761</v>
+        <v>56823773</v>
       </c>
       <c r="B9" t="n">
-        <v>78980</v>
+        <v>80084</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1430,21 +1430,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6425</v>
+        <v>2081</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1454,10 +1454,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>679980</v>
+        <v>680038</v>
       </c>
       <c r="R9" t="n">
-        <v>7118130</v>
+        <v>7117781</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1508,7 +1508,7 @@
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>lodvägg</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>
@@ -1526,10 +1526,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>56823773</v>
+        <v>56823761</v>
       </c>
       <c r="B10" t="n">
-        <v>80084</v>
+        <v>78980</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1537,21 +1537,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2081</v>
+        <v>6425</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1561,10 +1561,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>680038</v>
+        <v>679980</v>
       </c>
       <c r="R10" t="n">
-        <v>7117781</v>
+        <v>7118130</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1615,7 +1615,7 @@
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>lodvägg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
@@ -1633,10 +1633,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>56823785</v>
+        <v>126859342</v>
       </c>
       <c r="B11" t="n">
-        <v>82792</v>
+        <v>79012</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1644,21 +1644,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1312</v>
+        <v>185</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1668,10 +1668,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>679859</v>
+        <v>679360</v>
       </c>
       <c r="R11" t="n">
-        <v>7117508</v>
+        <v>7117840</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1698,12 +1698,22 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2015-05-18</t>
+          <t>2025-07-23</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>15:51</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2015-10-30</t>
+          <t>2025-07-23</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>15:51</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1714,36 +1724,26 @@
       </c>
       <c r="AG11" t="b">
         <v>0</v>
-      </c>
-      <c r="AI11" t="inlineStr">
-        <is>
-          <t>barrnaturskog</t>
-        </is>
-      </c>
-      <c r="AO11" t="inlineStr">
-        <is>
-          <t>gammal gran</t>
-        </is>
       </c>
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Cajsa Björkén</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Cajsa Björkén</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>56823803</v>
+        <v>56823785</v>
       </c>
       <c r="B12" t="n">
-        <v>78980</v>
+        <v>82792</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1751,21 +1751,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6425</v>
+        <v>1312</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1775,10 +1775,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>679379</v>
+        <v>679859</v>
       </c>
       <c r="R12" t="n">
-        <v>7117876</v>
+        <v>7117508</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1829,7 +1829,7 @@
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>gran, 108 år</t>
+          <t>gammal gran</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr"/>
@@ -1847,32 +1847,32 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>56823768</v>
+        <v>56823803</v>
       </c>
       <c r="B13" t="n">
-        <v>80119</v>
+        <v>78980</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6464</v>
+        <v>6425</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1882,10 +1882,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>680346</v>
+        <v>679379</v>
       </c>
       <c r="R13" t="n">
-        <v>7117700</v>
+        <v>7117876</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1936,7 +1936,7 @@
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran, 108 år</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr"/>
@@ -1954,10 +1954,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>56823788</v>
+        <v>56823808</v>
       </c>
       <c r="B14" t="n">
-        <v>77929</v>
+        <v>80083</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1965,21 +1965,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6487</v>
+        <v>6458</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Blågrå svartspik</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Chaenothecopsis fennica</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Laurila) Tibell</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -1989,10 +1989,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>679864</v>
+        <v>679436</v>
       </c>
       <c r="R14" t="n">
-        <v>7117649</v>
+        <v>7118108</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2038,12 +2038,12 @@
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>trädbevuxen myr</t>
+          <t>barrnaturskog</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>klen silverfura</t>
+          <t>sälg, gran</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr"/>
@@ -2061,32 +2061,32 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>56823808</v>
+        <v>56823768</v>
       </c>
       <c r="B15" t="n">
-        <v>80083</v>
+        <v>80119</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6458</v>
+        <v>6464</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2096,10 +2096,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>679436</v>
+        <v>680346</v>
       </c>
       <c r="R15" t="n">
-        <v>7118108</v>
+        <v>7117700</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2150,7 +2150,7 @@
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>sälg, gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr"/>
@@ -2168,32 +2168,32 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>56823774</v>
+        <v>56823788</v>
       </c>
       <c r="B16" t="n">
-        <v>98361</v>
+        <v>77929</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>220787</v>
+        <v>6487</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blågrå svartspik</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Chaenothecopsis fennica</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Laurila) Tibell</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2203,10 +2203,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>680003</v>
+        <v>679864</v>
       </c>
       <c r="R16" t="n">
-        <v>7117753</v>
+        <v>7117649</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2252,7 +2252,12 @@
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>barrnaturskog</t>
+          <t>trädbevuxen myr</t>
+        </is>
+      </c>
+      <c r="AO16" t="inlineStr">
+        <is>
+          <t>klen silverfura</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr"/>
@@ -2484,32 +2489,32 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>56823760</v>
+        <v>56823774</v>
       </c>
       <c r="B19" t="n">
-        <v>95594</v>
+        <v>98361</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>2809</v>
+        <v>220787</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Mörk husmossa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Hylocomiastrum umbratum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Hedw.) M.Fleisch.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2519,10 +2524,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>680122</v>
+        <v>680003</v>
       </c>
       <c r="R19" t="n">
-        <v>7117961</v>
+        <v>7117753</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2693,10 +2698,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>56823792</v>
+        <v>56823806</v>
       </c>
       <c r="B21" t="n">
-        <v>91263</v>
+        <v>80083</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2704,21 +2709,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>5432</v>
+        <v>6458</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2728,10 +2733,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>679453</v>
+        <v>679373</v>
       </c>
       <c r="R21" t="n">
-        <v>7118062</v>
+        <v>7117945</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2782,7 +2787,7 @@
       </c>
       <c r="AO21" t="inlineStr">
         <is>
-          <t>torrgran/granlåga</t>
+          <t>sälg på sockel</t>
         </is>
       </c>
       <c r="AT21" t="inlineStr"/>
@@ -2800,7 +2805,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>56823786</v>
+        <v>56823792</v>
       </c>
       <c r="B22" t="n">
         <v>91263</v>
@@ -2835,10 +2840,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>679833</v>
+        <v>679453</v>
       </c>
       <c r="R22" t="n">
-        <v>7117513</v>
+        <v>7118062</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2907,10 +2912,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>56823770</v>
+        <v>56823786</v>
       </c>
       <c r="B23" t="n">
-        <v>78980</v>
+        <v>91263</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2918,21 +2923,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -2942,10 +2947,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>680328</v>
+        <v>679833</v>
       </c>
       <c r="R23" t="n">
-        <v>7117713</v>
+        <v>7117513</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -2996,7 +3001,7 @@
       </c>
       <c r="AO23" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>torrgran/granlåga</t>
         </is>
       </c>
       <c r="AT23" t="inlineStr"/>
@@ -3014,10 +3019,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>56823787</v>
+        <v>56823770</v>
       </c>
       <c r="B24" t="n">
-        <v>78386</v>
+        <v>78980</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3025,21 +3030,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6437</v>
+        <v>6425</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3049,10 +3054,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>679864</v>
+        <v>680328</v>
       </c>
       <c r="R24" t="n">
-        <v>7117649</v>
+        <v>7117713</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3098,12 +3103,12 @@
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>trädbevuxen myr</t>
+          <t>barrnaturskog</t>
         </is>
       </c>
       <c r="AO24" t="inlineStr">
         <is>
-          <t>klen silverfura</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AT24" t="inlineStr"/>
@@ -3121,10 +3126,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>56823806</v>
+        <v>56823787</v>
       </c>
       <c r="B25" t="n">
-        <v>80083</v>
+        <v>78386</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3132,21 +3137,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6458</v>
+        <v>6437</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3156,10 +3161,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>679373</v>
+        <v>679864</v>
       </c>
       <c r="R25" t="n">
-        <v>7117945</v>
+        <v>7117649</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3205,12 +3210,12 @@
       </c>
       <c r="AI25" t="inlineStr">
         <is>
-          <t>barrnaturskog</t>
+          <t>trädbevuxen myr</t>
         </is>
       </c>
       <c r="AO25" t="inlineStr">
         <is>
-          <t>sälg på sockel</t>
+          <t>klen silverfura</t>
         </is>
       </c>
       <c r="AT25" t="inlineStr"/>
@@ -3228,32 +3233,32 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>56823762</v>
+        <v>56823760</v>
       </c>
       <c r="B26" t="n">
-        <v>79012</v>
+        <v>95594</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>185</v>
+        <v>2809</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Mörk husmossa</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Hylocomiastrum umbratum</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Hedw.) M.Fleisch.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3263,10 +3268,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>680332</v>
+        <v>680122</v>
       </c>
       <c r="R26" t="n">
-        <v>7117841</v>
+        <v>7117961</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3313,11 +3318,6 @@
       <c r="AI26" t="inlineStr">
         <is>
           <t>barrnaturskog</t>
-        </is>
-      </c>
-      <c r="AO26" t="inlineStr">
-        <is>
-          <t>gran</t>
         </is>
       </c>
       <c r="AT26" t="inlineStr"/>
@@ -3335,10 +3335,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>56823781</v>
+        <v>56823762</v>
       </c>
       <c r="B27" t="n">
-        <v>82792</v>
+        <v>79012</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3346,21 +3346,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1312</v>
+        <v>185</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3370,10 +3370,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>679934</v>
+        <v>680332</v>
       </c>
       <c r="R27" t="n">
-        <v>7117396</v>
+        <v>7117841</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3424,7 +3424,7 @@
       </c>
       <c r="AO27" t="inlineStr">
         <is>
-          <t>gammal gran</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AT27" t="inlineStr"/>
@@ -3442,10 +3442,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>56823782</v>
+        <v>56823781</v>
       </c>
       <c r="B28" t="n">
-        <v>78980</v>
+        <v>82792</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3453,21 +3453,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6425</v>
+        <v>1312</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3549,7 +3549,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>56823805</v>
+        <v>56823782</v>
       </c>
       <c r="B29" t="n">
         <v>78980</v>
@@ -3584,10 +3584,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>679369</v>
+        <v>679934</v>
       </c>
       <c r="R29" t="n">
-        <v>7117927</v>
+        <v>7117396</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3656,10 +3656,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>56823800</v>
+        <v>56823783</v>
       </c>
       <c r="B30" t="n">
-        <v>80083</v>
+        <v>91245</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3667,21 +3667,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6458</v>
+        <v>1202</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3691,10 +3691,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>679442</v>
+        <v>679891</v>
       </c>
       <c r="R30" t="n">
-        <v>7117901</v>
+        <v>7117471</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3745,7 +3745,7 @@
       </c>
       <c r="AO30" t="inlineStr">
         <is>
-          <t>asp</t>
+          <t>granlåga</t>
         </is>
       </c>
       <c r="AT30" t="inlineStr"/>
@@ -3763,32 +3763,32 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>56823795</v>
+        <v>56823805</v>
       </c>
       <c r="B31" t="n">
-        <v>80119</v>
+        <v>78980</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6464</v>
+        <v>6425</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -3798,10 +3798,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>679446</v>
+        <v>679369</v>
       </c>
       <c r="R31" t="n">
-        <v>7117957</v>
+        <v>7117927</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -3852,7 +3852,7 @@
       </c>
       <c r="AO31" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gammal gran</t>
         </is>
       </c>
       <c r="AT31" t="inlineStr"/>
@@ -3870,32 +3870,32 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>56823783</v>
+        <v>56823795</v>
       </c>
       <c r="B32" t="n">
-        <v>91245</v>
+        <v>80119</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1202</v>
+        <v>6464</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -3905,10 +3905,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>679891</v>
+        <v>679446</v>
       </c>
       <c r="R32" t="n">
-        <v>7117471</v>
+        <v>7117957</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -3959,7 +3959,7 @@
       </c>
       <c r="AO32" t="inlineStr">
         <is>
-          <t>granlåga</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AT32" t="inlineStr"/>
@@ -3977,10 +3977,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>56823772</v>
+        <v>56823800</v>
       </c>
       <c r="B33" t="n">
-        <v>96614</v>
+        <v>80083</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3988,21 +3988,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>53</v>
+        <v>6458</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4012,10 +4012,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>680053</v>
+        <v>679442</v>
       </c>
       <c r="R33" t="n">
-        <v>7117784</v>
+        <v>7117901</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4066,7 +4066,7 @@
       </c>
       <c r="AO33" t="inlineStr">
         <is>
-          <t>mosslåga tall</t>
+          <t>asp</t>
         </is>
       </c>
       <c r="AT33" t="inlineStr"/>
@@ -4084,32 +4084,32 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>56823764</v>
+        <v>56823772</v>
       </c>
       <c r="B34" t="n">
-        <v>98361</v>
+        <v>96614</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>220787</v>
+        <v>53</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4119,10 +4119,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>680430</v>
+        <v>680053</v>
       </c>
       <c r="R34" t="n">
-        <v>7117677</v>
+        <v>7117784</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4169,6 +4169,11 @@
       <c r="AI34" t="inlineStr">
         <is>
           <t>barrnaturskog</t>
+        </is>
+      </c>
+      <c r="AO34" t="inlineStr">
+        <is>
+          <t>mosslåga tall</t>
         </is>
       </c>
       <c r="AT34" t="inlineStr"/>
@@ -4186,32 +4191,32 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>56823780</v>
+        <v>56823764</v>
       </c>
       <c r="B35" t="n">
-        <v>78980</v>
+        <v>98361</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6425</v>
+        <v>220787</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4221,10 +4226,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>679957</v>
+        <v>680430</v>
       </c>
       <c r="R35" t="n">
-        <v>7117413</v>
+        <v>7117677</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4271,11 +4276,6 @@
       <c r="AI35" t="inlineStr">
         <is>
           <t>barrnaturskog</t>
-        </is>
-      </c>
-      <c r="AO35" t="inlineStr">
-        <is>
-          <t>gammal gran</t>
         </is>
       </c>
       <c r="AT35" t="inlineStr"/>
@@ -4293,32 +4293,32 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>56823766</v>
+        <v>56823780</v>
       </c>
       <c r="B36" t="n">
-        <v>80112</v>
+        <v>78980</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>6462</v>
+        <v>6425</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4328,10 +4328,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>680386</v>
+        <v>679957</v>
       </c>
       <c r="R36" t="n">
-        <v>7117699</v>
+        <v>7117413</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4382,7 +4382,7 @@
       </c>
       <c r="AO36" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gammal gran</t>
         </is>
       </c>
       <c r="AT36" t="inlineStr"/>
@@ -4400,32 +4400,32 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>56823776</v>
+        <v>56823766</v>
       </c>
       <c r="B37" t="n">
-        <v>82792</v>
+        <v>80112</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1312</v>
+        <v>6462</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4435,10 +4435,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>679990</v>
+        <v>680386</v>
       </c>
       <c r="R37" t="n">
-        <v>7117643</v>
+        <v>7117699</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4489,7 +4489,7 @@
       </c>
       <c r="AO37" t="inlineStr">
         <is>
-          <t>gammal gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AT37" t="inlineStr"/>
@@ -4614,7 +4614,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>56823807</v>
+        <v>56823776</v>
       </c>
       <c r="B39" t="n">
         <v>82792</v>
@@ -4649,10 +4649,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>679365</v>
+        <v>679990</v>
       </c>
       <c r="R39" t="n">
-        <v>7117958</v>
+        <v>7117643</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4721,32 +4721,32 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>56823784</v>
+        <v>56823807</v>
       </c>
       <c r="B40" t="n">
-        <v>91210</v>
+        <v>82792</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>5447</v>
+        <v>1312</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -4756,10 +4756,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>679891</v>
+        <v>679365</v>
       </c>
       <c r="R40" t="n">
-        <v>7117471</v>
+        <v>7117958</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -4810,7 +4810,7 @@
       </c>
       <c r="AO40" t="inlineStr">
         <is>
-          <t>granlåga</t>
+          <t>gammal gran</t>
         </is>
       </c>
       <c r="AT40" t="inlineStr"/>
@@ -4828,32 +4828,32 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>56823801</v>
+        <v>56823784</v>
       </c>
       <c r="B41" t="n">
-        <v>80083</v>
+        <v>91210</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>6458</v>
+        <v>5447</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -4863,10 +4863,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>679419</v>
+        <v>679891</v>
       </c>
       <c r="R41" t="n">
-        <v>7117862</v>
+        <v>7117471</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -4917,7 +4917,7 @@
       </c>
       <c r="AO41" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>granlåga</t>
         </is>
       </c>
       <c r="AT41" t="inlineStr"/>
@@ -4935,10 +4935,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>56823810</v>
+        <v>56823801</v>
       </c>
       <c r="B42" t="n">
-        <v>78980</v>
+        <v>80083</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4946,21 +4946,21 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -4970,10 +4970,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>679625</v>
+        <v>679419</v>
       </c>
       <c r="R42" t="n">
-        <v>7118355</v>
+        <v>7117862</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5024,7 +5024,7 @@
       </c>
       <c r="AO42" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AT42" t="inlineStr"/>
@@ -5042,7 +5042,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>56823790</v>
+        <v>56823810</v>
       </c>
       <c r="B43" t="n">
         <v>78980</v>
@@ -5077,10 +5077,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>679591</v>
+        <v>679625</v>
       </c>
       <c r="R43" t="n">
-        <v>7118037</v>
+        <v>7118355</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5131,7 +5131,7 @@
       </c>
       <c r="AO43" t="inlineStr">
         <is>
-          <t>torrgran</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AT43" t="inlineStr"/>
@@ -5149,10 +5149,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>56823811</v>
+        <v>126864915</v>
       </c>
       <c r="B44" t="n">
-        <v>79012</v>
+        <v>78980</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -5160,34 +5160,34 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>185</v>
+        <v>6425</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Gålgoberget, Ly lm</t>
+          <t>Västra Vargträsk, Ly lm</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>679625</v>
+        <v>679373</v>
       </c>
       <c r="R44" t="n">
-        <v>7118355</v>
+        <v>7117850</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5214,12 +5214,12 @@
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>2015-05-18</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
         <is>
-          <t>2015-10-30</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5231,57 +5231,62 @@
       <c r="AG44" t="b">
         <v>0</v>
       </c>
-      <c r="AI44" t="inlineStr">
-        <is>
-          <t>barrnaturskog</t>
+      <c r="AJ44" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK44" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO44" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT44" t="inlineStr"/>
       <c r="AW44" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Carl Jansson</t>
         </is>
       </c>
       <c r="AX44" t="inlineStr">
         <is>
-          <t>Sebastian Kirppu</t>
+          <t>Carl Jansson, Cajsa Björkén, Vilhelm Kroon</t>
         </is>
       </c>
       <c r="AY44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>56823793</v>
+        <v>56823790</v>
       </c>
       <c r="B45" t="n">
-        <v>91210</v>
+        <v>78980</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>5447</v>
+        <v>6425</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5291,10 +5296,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>679443</v>
+        <v>679591</v>
       </c>
       <c r="R45" t="n">
-        <v>7118026</v>
+        <v>7118037</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5345,7 +5350,7 @@
       </c>
       <c r="AO45" t="inlineStr">
         <is>
-          <t>granlåga</t>
+          <t>torrgran</t>
         </is>
       </c>
       <c r="AT45" t="inlineStr"/>
@@ -5363,32 +5368,32 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>56823778</v>
+        <v>56823811</v>
       </c>
       <c r="B46" t="n">
-        <v>80112</v>
+        <v>79012</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>6462</v>
+        <v>185</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5398,10 +5403,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>679993</v>
+        <v>679625</v>
       </c>
       <c r="R46" t="n">
-        <v>7117641</v>
+        <v>7118355</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5452,7 +5457,7 @@
       </c>
       <c r="AO46" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AT46" t="inlineStr"/>
@@ -5470,32 +5475,32 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>56823802</v>
+        <v>56823793</v>
       </c>
       <c r="B47" t="n">
-        <v>79012</v>
+        <v>91210</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>185</v>
+        <v>5447</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -5505,10 +5510,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>679379</v>
+        <v>679443</v>
       </c>
       <c r="R47" t="n">
-        <v>7117876</v>
+        <v>7118026</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -5559,7 +5564,7 @@
       </c>
       <c r="AO47" t="inlineStr">
         <is>
-          <t>gran, 108 år</t>
+          <t>granlåga</t>
         </is>
       </c>
       <c r="AT47" t="inlineStr"/>
@@ -5577,32 +5582,32 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>56823763</v>
+        <v>56823778</v>
       </c>
       <c r="B48" t="n">
-        <v>98361</v>
+        <v>80112</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>220787</v>
+        <v>6462</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -5612,10 +5617,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>680435</v>
+        <v>679993</v>
       </c>
       <c r="R48" t="n">
-        <v>7117674</v>
+        <v>7117641</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -5662,6 +5667,11 @@
       <c r="AI48" t="inlineStr">
         <is>
           <t>barrnaturskog</t>
+        </is>
+      </c>
+      <c r="AO48" t="inlineStr">
+        <is>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AT48" t="inlineStr"/>
@@ -5679,10 +5689,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>56823777</v>
+        <v>56823802</v>
       </c>
       <c r="B49" t="n">
-        <v>80083</v>
+        <v>79012</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5690,21 +5700,21 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>6458</v>
+        <v>185</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -5714,10 +5724,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>679993</v>
+        <v>679379</v>
       </c>
       <c r="R49" t="n">
-        <v>7117641</v>
+        <v>7117876</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -5768,7 +5778,7 @@
       </c>
       <c r="AO49" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran, 108 år</t>
         </is>
       </c>
       <c r="AT49" t="inlineStr"/>
@@ -5786,10 +5796,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>56823799</v>
+        <v>56823777</v>
       </c>
       <c r="B50" t="n">
-        <v>78980</v>
+        <v>80083</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5797,21 +5807,21 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -5821,10 +5831,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>679438</v>
+        <v>679993</v>
       </c>
       <c r="R50" t="n">
-        <v>7117904</v>
+        <v>7117641</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -5875,7 +5885,7 @@
       </c>
       <c r="AO50" t="inlineStr">
         <is>
-          <t>hänglavrikt kring en vät</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AT50" t="inlineStr"/>
@@ -5893,32 +5903,32 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>56823809</v>
+        <v>56823763</v>
       </c>
       <c r="B51" t="n">
-        <v>78980</v>
+        <v>98361</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>6425</v>
+        <v>220787</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -5928,10 +5938,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>679436</v>
+        <v>680435</v>
       </c>
       <c r="R51" t="n">
-        <v>7118108</v>
+        <v>7117674</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -5978,11 +5988,6 @@
       <c r="AI51" t="inlineStr">
         <is>
           <t>barrnaturskog</t>
-        </is>
-      </c>
-      <c r="AO51" t="inlineStr">
-        <is>
-          <t>sälg, gran</t>
         </is>
       </c>
       <c r="AT51" t="inlineStr"/>
@@ -6000,32 +6005,32 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>56823796</v>
+        <v>56823799</v>
       </c>
       <c r="B52" t="n">
-        <v>80112</v>
+        <v>78980</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>6462</v>
+        <v>6425</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -6035,10 +6040,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>679446</v>
+        <v>679438</v>
       </c>
       <c r="R52" t="n">
-        <v>7117957</v>
+        <v>7117904</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6089,7 +6094,7 @@
       </c>
       <c r="AO52" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>hänglavrikt kring en vät</t>
         </is>
       </c>
       <c r="AT52" t="inlineStr"/>
@@ -6104,6 +6109,220 @@
         </is>
       </c>
       <c r="AY52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>56823796</v>
+      </c>
+      <c r="B53" t="n">
+        <v>80112</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>6462</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Stuplav</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Nephroma bellum</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>(Spreng.) Tuck.</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>Gålgoberget, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q53" t="n">
+        <v>679446</v>
+      </c>
+      <c r="R53" t="n">
+        <v>7117957</v>
+      </c>
+      <c r="S53" t="n">
+        <v>10</v>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>Lycksele</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W53" t="inlineStr">
+        <is>
+          <t>Örträsk</t>
+        </is>
+      </c>
+      <c r="Y53" t="inlineStr">
+        <is>
+          <t>2015-05-18</t>
+        </is>
+      </c>
+      <c r="AA53" t="inlineStr">
+        <is>
+          <t>2015-10-30</t>
+        </is>
+      </c>
+      <c r="AD53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI53" t="inlineStr">
+        <is>
+          <t>barrnaturskog</t>
+        </is>
+      </c>
+      <c r="AO53" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AT53" t="inlineStr"/>
+      <c r="AW53" t="inlineStr">
+        <is>
+          <t>Sebastian Kirppu</t>
+        </is>
+      </c>
+      <c r="AX53" t="inlineStr">
+        <is>
+          <t>Sebastian Kirppu</t>
+        </is>
+      </c>
+      <c r="AY53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>56823809</v>
+      </c>
+      <c r="B54" t="n">
+        <v>78980</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>Gålgoberget, Ly lm</t>
+        </is>
+      </c>
+      <c r="Q54" t="n">
+        <v>679436</v>
+      </c>
+      <c r="R54" t="n">
+        <v>7118108</v>
+      </c>
+      <c r="S54" t="n">
+        <v>10</v>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>Lycksele</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W54" t="inlineStr">
+        <is>
+          <t>Örträsk</t>
+        </is>
+      </c>
+      <c r="Y54" t="inlineStr">
+        <is>
+          <t>2015-05-18</t>
+        </is>
+      </c>
+      <c r="AA54" t="inlineStr">
+        <is>
+          <t>2015-10-30</t>
+        </is>
+      </c>
+      <c r="AD54" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE54" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG54" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI54" t="inlineStr">
+        <is>
+          <t>barrnaturskog</t>
+        </is>
+      </c>
+      <c r="AO54" t="inlineStr">
+        <is>
+          <t>sälg, gran</t>
+        </is>
+      </c>
+      <c r="AT54" t="inlineStr"/>
+      <c r="AW54" t="inlineStr">
+        <is>
+          <t>Sebastian Kirppu</t>
+        </is>
+      </c>
+      <c r="AX54" t="inlineStr">
+        <is>
+          <t>Sebastian Kirppu</t>
+        </is>
+      </c>
+      <c r="AY54" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/Gålgoberget artfynd.xlsx
+++ b/artfynd/Gålgoberget artfynd.xlsx
@@ -991,10 +991,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>56823794</v>
+        <v>56823789</v>
       </c>
       <c r="B5" t="n">
-        <v>80083</v>
+        <v>91263</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1002,21 +1002,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6458</v>
+        <v>5432</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>679446</v>
+        <v>679591</v>
       </c>
       <c r="R5" t="n">
-        <v>7117957</v>
+        <v>7118037</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1080,7 +1080,7 @@
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>torrgran</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>
@@ -1205,10 +1205,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>56823789</v>
+        <v>56823794</v>
       </c>
       <c r="B7" t="n">
-        <v>91263</v>
+        <v>80083</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1216,21 +1216,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5432</v>
+        <v>6458</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1240,10 +1240,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>679591</v>
+        <v>679446</v>
       </c>
       <c r="R7" t="n">
-        <v>7118037</v>
+        <v>7117957</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1294,7 +1294,7 @@
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>torrgran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
@@ -1733,17 +1733,21 @@
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Cajsa Björkén</t>
-        </is>
-      </c>
-      <c r="AY11" t="inlineStr"/>
+          <t>Carl Jansson, Vilhelm Kroon, Cajsa Björkén</t>
+        </is>
+      </c>
+      <c r="AY11" t="inlineStr">
+        <is>
+          <t>Forskningsresan i naturvårdens utmarker, Bjurholm 2025</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>56823785</v>
+        <v>56823803</v>
       </c>
       <c r="B12" t="n">
-        <v>82792</v>
+        <v>78980</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1751,21 +1755,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1312</v>
+        <v>6425</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1775,10 +1779,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>679859</v>
+        <v>679379</v>
       </c>
       <c r="R12" t="n">
-        <v>7117508</v>
+        <v>7117876</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1829,7 +1833,7 @@
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>gammal gran</t>
+          <t>gran, 108 år</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr"/>
@@ -1847,10 +1851,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>56823803</v>
+        <v>56823785</v>
       </c>
       <c r="B13" t="n">
-        <v>78980</v>
+        <v>82792</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1858,21 +1862,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6425</v>
+        <v>1312</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1882,10 +1886,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>679379</v>
+        <v>679859</v>
       </c>
       <c r="R13" t="n">
-        <v>7117876</v>
+        <v>7117508</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1936,7 +1940,7 @@
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>gran, 108 år</t>
+          <t>gammal gran</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr"/>
@@ -1954,32 +1958,32 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>56823808</v>
+        <v>56823768</v>
       </c>
       <c r="B14" t="n">
-        <v>80083</v>
+        <v>80119</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6458</v>
+        <v>6464</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -1989,10 +1993,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>679436</v>
+        <v>680346</v>
       </c>
       <c r="R14" t="n">
-        <v>7118108</v>
+        <v>7117700</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2043,7 +2047,7 @@
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>sälg, gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr"/>
@@ -2061,32 +2065,32 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>56823768</v>
+        <v>56823808</v>
       </c>
       <c r="B15" t="n">
-        <v>80119</v>
+        <v>80083</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6464</v>
+        <v>6458</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2096,10 +2100,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>680346</v>
+        <v>679436</v>
       </c>
       <c r="R15" t="n">
-        <v>7117700</v>
+        <v>7118108</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2150,7 +2154,7 @@
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>sälg, gran</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr"/>
@@ -2591,10 +2595,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>56823769</v>
+        <v>56823792</v>
       </c>
       <c r="B20" t="n">
-        <v>79012</v>
+        <v>91263</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2602,21 +2606,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>185</v>
+        <v>5432</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2626,10 +2630,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>680328</v>
+        <v>679453</v>
       </c>
       <c r="R20" t="n">
-        <v>7117713</v>
+        <v>7118062</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2680,7 +2684,7 @@
       </c>
       <c r="AO20" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>torrgran/granlåga</t>
         </is>
       </c>
       <c r="AT20" t="inlineStr"/>
@@ -2698,10 +2702,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>56823806</v>
+        <v>56823786</v>
       </c>
       <c r="B21" t="n">
-        <v>80083</v>
+        <v>91263</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2709,21 +2713,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6458</v>
+        <v>5432</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2733,10 +2737,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>679373</v>
+        <v>679833</v>
       </c>
       <c r="R21" t="n">
-        <v>7117945</v>
+        <v>7117513</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2787,7 +2791,7 @@
       </c>
       <c r="AO21" t="inlineStr">
         <is>
-          <t>sälg på sockel</t>
+          <t>torrgran/granlåga</t>
         </is>
       </c>
       <c r="AT21" t="inlineStr"/>
@@ -2805,10 +2809,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>56823792</v>
+        <v>56823769</v>
       </c>
       <c r="B22" t="n">
-        <v>91263</v>
+        <v>79012</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2816,21 +2820,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>5432</v>
+        <v>185</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2840,10 +2844,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>679453</v>
+        <v>680328</v>
       </c>
       <c r="R22" t="n">
-        <v>7118062</v>
+        <v>7117713</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2894,7 +2898,7 @@
       </c>
       <c r="AO22" t="inlineStr">
         <is>
-          <t>torrgran/granlåga</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AT22" t="inlineStr"/>
@@ -2912,10 +2916,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>56823786</v>
+        <v>56823806</v>
       </c>
       <c r="B23" t="n">
-        <v>91263</v>
+        <v>80083</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2923,21 +2927,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>5432</v>
+        <v>6458</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -2947,10 +2951,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>679833</v>
+        <v>679373</v>
       </c>
       <c r="R23" t="n">
-        <v>7117513</v>
+        <v>7117945</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3001,7 +3005,7 @@
       </c>
       <c r="AO23" t="inlineStr">
         <is>
-          <t>torrgran/granlåga</t>
+          <t>sälg på sockel</t>
         </is>
       </c>
       <c r="AT23" t="inlineStr"/>
@@ -3019,10 +3023,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>56823770</v>
+        <v>56823787</v>
       </c>
       <c r="B24" t="n">
-        <v>78980</v>
+        <v>78386</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3030,21 +3034,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6425</v>
+        <v>6437</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3054,10 +3058,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>680328</v>
+        <v>679864</v>
       </c>
       <c r="R24" t="n">
-        <v>7117713</v>
+        <v>7117649</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3103,12 +3107,12 @@
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>barrnaturskog</t>
+          <t>trädbevuxen myr</t>
         </is>
       </c>
       <c r="AO24" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>klen silverfura</t>
         </is>
       </c>
       <c r="AT24" t="inlineStr"/>
@@ -3126,10 +3130,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>56823787</v>
+        <v>56823770</v>
       </c>
       <c r="B25" t="n">
-        <v>78386</v>
+        <v>78980</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3137,21 +3141,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6437</v>
+        <v>6425</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3161,10 +3165,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>679864</v>
+        <v>680328</v>
       </c>
       <c r="R25" t="n">
-        <v>7117649</v>
+        <v>7117713</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3210,12 +3214,12 @@
       </c>
       <c r="AI25" t="inlineStr">
         <is>
-          <t>trädbevuxen myr</t>
+          <t>barrnaturskog</t>
         </is>
       </c>
       <c r="AO25" t="inlineStr">
         <is>
-          <t>klen silverfura</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AT25" t="inlineStr"/>
@@ -3442,10 +3446,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>56823781</v>
+        <v>56823782</v>
       </c>
       <c r="B28" t="n">
-        <v>82792</v>
+        <v>78980</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3453,21 +3457,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1312</v>
+        <v>6425</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3549,10 +3553,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>56823782</v>
+        <v>56823781</v>
       </c>
       <c r="B29" t="n">
-        <v>78980</v>
+        <v>82792</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3560,21 +3564,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6425</v>
+        <v>1312</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3656,10 +3660,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>56823783</v>
+        <v>56823800</v>
       </c>
       <c r="B30" t="n">
-        <v>91245</v>
+        <v>80083</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3667,21 +3671,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1202</v>
+        <v>6458</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3691,10 +3695,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>679891</v>
+        <v>679442</v>
       </c>
       <c r="R30" t="n">
-        <v>7117471</v>
+        <v>7117901</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3745,7 +3749,7 @@
       </c>
       <c r="AO30" t="inlineStr">
         <is>
-          <t>granlåga</t>
+          <t>asp</t>
         </is>
       </c>
       <c r="AT30" t="inlineStr"/>
@@ -3763,10 +3767,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>56823805</v>
+        <v>56823783</v>
       </c>
       <c r="B31" t="n">
-        <v>78980</v>
+        <v>91245</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3774,21 +3778,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -3798,10 +3802,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>679369</v>
+        <v>679891</v>
       </c>
       <c r="R31" t="n">
-        <v>7117927</v>
+        <v>7117471</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -3852,7 +3856,7 @@
       </c>
       <c r="AO31" t="inlineStr">
         <is>
-          <t>gammal gran</t>
+          <t>granlåga</t>
         </is>
       </c>
       <c r="AT31" t="inlineStr"/>
@@ -3870,32 +3874,32 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>56823795</v>
+        <v>56823805</v>
       </c>
       <c r="B32" t="n">
-        <v>80119</v>
+        <v>78980</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6464</v>
+        <v>6425</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -3905,10 +3909,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>679446</v>
+        <v>679369</v>
       </c>
       <c r="R32" t="n">
-        <v>7117957</v>
+        <v>7117927</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -3959,7 +3963,7 @@
       </c>
       <c r="AO32" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gammal gran</t>
         </is>
       </c>
       <c r="AT32" t="inlineStr"/>
@@ -3977,32 +3981,32 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>56823800</v>
+        <v>56823795</v>
       </c>
       <c r="B33" t="n">
-        <v>80083</v>
+        <v>80119</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6458</v>
+        <v>6464</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4012,10 +4016,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>679442</v>
+        <v>679446</v>
       </c>
       <c r="R33" t="n">
-        <v>7117901</v>
+        <v>7117957</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4066,7 +4070,7 @@
       </c>
       <c r="AO33" t="inlineStr">
         <is>
-          <t>asp</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AT33" t="inlineStr"/>
@@ -4084,32 +4088,32 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>56823772</v>
+        <v>56823764</v>
       </c>
       <c r="B34" t="n">
-        <v>96614</v>
+        <v>98361</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>53</v>
+        <v>220787</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4119,10 +4123,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>680053</v>
+        <v>680430</v>
       </c>
       <c r="R34" t="n">
-        <v>7117784</v>
+        <v>7117677</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4169,11 +4173,6 @@
       <c r="AI34" t="inlineStr">
         <is>
           <t>barrnaturskog</t>
-        </is>
-      </c>
-      <c r="AO34" t="inlineStr">
-        <is>
-          <t>mosslåga tall</t>
         </is>
       </c>
       <c r="AT34" t="inlineStr"/>
@@ -4191,32 +4190,32 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>56823764</v>
+        <v>56823772</v>
       </c>
       <c r="B35" t="n">
-        <v>98361</v>
+        <v>96614</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>220787</v>
+        <v>53</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4226,10 +4225,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>680430</v>
+        <v>680053</v>
       </c>
       <c r="R35" t="n">
-        <v>7117677</v>
+        <v>7117784</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4276,6 +4275,11 @@
       <c r="AI35" t="inlineStr">
         <is>
           <t>barrnaturskog</t>
+        </is>
+      </c>
+      <c r="AO35" t="inlineStr">
+        <is>
+          <t>mosslåga tall</t>
         </is>
       </c>
       <c r="AT35" t="inlineStr"/>
@@ -4293,32 +4297,32 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>56823780</v>
+        <v>56823766</v>
       </c>
       <c r="B36" t="n">
-        <v>78980</v>
+        <v>80112</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>6425</v>
+        <v>6462</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4328,10 +4332,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>679957</v>
+        <v>680386</v>
       </c>
       <c r="R36" t="n">
-        <v>7117413</v>
+        <v>7117699</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4382,7 +4386,7 @@
       </c>
       <c r="AO36" t="inlineStr">
         <is>
-          <t>gammal gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AT36" t="inlineStr"/>
@@ -4400,32 +4404,32 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>56823766</v>
+        <v>56823780</v>
       </c>
       <c r="B37" t="n">
-        <v>80112</v>
+        <v>78980</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6462</v>
+        <v>6425</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4435,10 +4439,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>680386</v>
+        <v>679957</v>
       </c>
       <c r="R37" t="n">
-        <v>7117699</v>
+        <v>7117413</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4489,7 +4493,7 @@
       </c>
       <c r="AO37" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gammal gran</t>
         </is>
       </c>
       <c r="AT37" t="inlineStr"/>
@@ -4935,10 +4939,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>56823801</v>
+        <v>56823810</v>
       </c>
       <c r="B42" t="n">
-        <v>80083</v>
+        <v>78980</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4946,21 +4950,21 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -4970,10 +4974,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>679419</v>
+        <v>679625</v>
       </c>
       <c r="R42" t="n">
-        <v>7117862</v>
+        <v>7118355</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5024,7 +5028,7 @@
       </c>
       <c r="AO42" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AT42" t="inlineStr"/>
@@ -5042,10 +5046,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>56823810</v>
+        <v>56823801</v>
       </c>
       <c r="B43" t="n">
-        <v>78980</v>
+        <v>80083</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -5053,21 +5057,21 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5077,10 +5081,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>679625</v>
+        <v>679419</v>
       </c>
       <c r="R43" t="n">
-        <v>7118355</v>
+        <v>7117862</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5131,7 +5135,7 @@
       </c>
       <c r="AO43" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AT43" t="inlineStr"/>
@@ -5368,32 +5372,32 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>56823811</v>
+        <v>56823793</v>
       </c>
       <c r="B46" t="n">
-        <v>79012</v>
+        <v>91210</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>185</v>
+        <v>5447</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5403,10 +5407,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>679625</v>
+        <v>679443</v>
       </c>
       <c r="R46" t="n">
-        <v>7118355</v>
+        <v>7118026</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5457,7 +5461,7 @@
       </c>
       <c r="AO46" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>granlåga</t>
         </is>
       </c>
       <c r="AT46" t="inlineStr"/>
@@ -5475,10 +5479,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>56823793</v>
+        <v>56823778</v>
       </c>
       <c r="B47" t="n">
-        <v>91210</v>
+        <v>80112</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5486,21 +5490,21 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>5447</v>
+        <v>6462</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -5510,10 +5514,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>679443</v>
+        <v>679993</v>
       </c>
       <c r="R47" t="n">
-        <v>7118026</v>
+        <v>7117641</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -5564,7 +5568,7 @@
       </c>
       <c r="AO47" t="inlineStr">
         <is>
-          <t>granlåga</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AT47" t="inlineStr"/>
@@ -5582,32 +5586,32 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>56823778</v>
+        <v>56823811</v>
       </c>
       <c r="B48" t="n">
-        <v>80112</v>
+        <v>79012</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>6462</v>
+        <v>185</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -5617,10 +5621,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>679993</v>
+        <v>679625</v>
       </c>
       <c r="R48" t="n">
-        <v>7117641</v>
+        <v>7118355</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -5671,7 +5675,7 @@
       </c>
       <c r="AO48" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AT48" t="inlineStr"/>
@@ -5689,32 +5693,32 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>56823802</v>
+        <v>56823763</v>
       </c>
       <c r="B49" t="n">
-        <v>79012</v>
+        <v>98361</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>185</v>
+        <v>220787</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -5724,10 +5728,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>679379</v>
+        <v>680435</v>
       </c>
       <c r="R49" t="n">
-        <v>7117876</v>
+        <v>7117674</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -5774,11 +5778,6 @@
       <c r="AI49" t="inlineStr">
         <is>
           <t>barrnaturskog</t>
-        </is>
-      </c>
-      <c r="AO49" t="inlineStr">
-        <is>
-          <t>gran, 108 år</t>
         </is>
       </c>
       <c r="AT49" t="inlineStr"/>
@@ -5796,10 +5795,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>56823777</v>
+        <v>56823802</v>
       </c>
       <c r="B50" t="n">
-        <v>80083</v>
+        <v>79012</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5807,21 +5806,21 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>6458</v>
+        <v>185</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -5831,10 +5830,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>679993</v>
+        <v>679379</v>
       </c>
       <c r="R50" t="n">
-        <v>7117641</v>
+        <v>7117876</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -5885,7 +5884,7 @@
       </c>
       <c r="AO50" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran, 108 år</t>
         </is>
       </c>
       <c r="AT50" t="inlineStr"/>
@@ -5903,32 +5902,32 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>56823763</v>
+        <v>56823777</v>
       </c>
       <c r="B51" t="n">
-        <v>98361</v>
+        <v>80083</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -5938,10 +5937,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>680435</v>
+        <v>679993</v>
       </c>
       <c r="R51" t="n">
-        <v>7117674</v>
+        <v>7117641</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -5988,6 +5987,11 @@
       <c r="AI51" t="inlineStr">
         <is>
           <t>barrnaturskog</t>
+        </is>
+      </c>
+      <c r="AO51" t="inlineStr">
+        <is>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AT51" t="inlineStr"/>
@@ -6005,7 +6009,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>56823799</v>
+        <v>56823809</v>
       </c>
       <c r="B52" t="n">
         <v>78980</v>
@@ -6040,10 +6044,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>679438</v>
+        <v>679436</v>
       </c>
       <c r="R52" t="n">
-        <v>7117904</v>
+        <v>7118108</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6094,7 +6098,7 @@
       </c>
       <c r="AO52" t="inlineStr">
         <is>
-          <t>hänglavrikt kring en vät</t>
+          <t>sälg, gran</t>
         </is>
       </c>
       <c r="AT52" t="inlineStr"/>
@@ -6219,7 +6223,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>56823809</v>
+        <v>56823799</v>
       </c>
       <c r="B54" t="n">
         <v>78980</v>
@@ -6254,10 +6258,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>679436</v>
+        <v>679438</v>
       </c>
       <c r="R54" t="n">
-        <v>7118108</v>
+        <v>7117904</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6308,7 +6312,7 @@
       </c>
       <c r="AO54" t="inlineStr">
         <is>
-          <t>sälg, gran</t>
+          <t>hänglavrikt kring en vät</t>
         </is>
       </c>
       <c r="AT54" t="inlineStr"/>
